--- a/ISO_External_Codeset.xlsx
+++ b/ISO_External_Codeset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/OpenBanking/GitHub/External_Internal_CodeSets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/GitHub-repos/External_Internal_CodeSets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9567958B-0CA4-9D41-8DB3-949BC192AFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57DBED4-A0DE-CB4E-BA5B-16FFB35A5901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19820" xr2:uid="{FBBA5019-91DA-4C4F-B9CD-8AE24E623AAD}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="19820" xr2:uid="{FBBA5019-91DA-4C4F-B9CD-8AE24E623AAD}"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_External_Codeset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="1927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="1930">
   <si>
     <t>Code Set</t>
   </si>
@@ -5844,6 +5844,15 @@
   </si>
   <si>
     <t>Tax accessed by state jurisdications within a country.</t>
+  </si>
+  <si>
+    <t>CRYP</t>
+  </si>
+  <si>
+    <t>CryptoTransaction</t>
+  </si>
+  <si>
+    <t>Transaction is for the purchase of cryptocurrency</t>
   </si>
 </sst>
 </file>
@@ -6395,8 +6404,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29E1F7B0-255A-A04F-A5BA-2B2FDA1E8B0D}" name="Table1" displayName="Table1" ref="A1:E692" totalsRowShown="0">
-  <autoFilter ref="A1:E692" xr:uid="{29E1F7B0-255A-A04F-A5BA-2B2FDA1E8B0D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29E1F7B0-255A-A04F-A5BA-2B2FDA1E8B0D}" name="Table1" displayName="Table1" ref="A1:E693" totalsRowShown="0">
+  <autoFilter ref="A1:E693" xr:uid="{29E1F7B0-255A-A04F-A5BA-2B2FDA1E8B0D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{568DECC5-0A29-0D4B-8F34-A37284783E08}" name="Code Set"/>
     <tableColumn id="2" xr3:uid="{7C2DD376-A83D-244C-9FF9-52150D88C761}" name="Code Value"/>
@@ -6725,10 +6734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1898038C-F655-9844-A304-6CA45952208C}">
-  <dimension ref="A1:E692"/>
+  <dimension ref="A1:E693"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="D613" sqref="D613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15784,32 +15793,32 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>1745</v>
+        <v>850</v>
       </c>
       <c r="B614" t="s">
-        <v>36</v>
+        <v>1927</v>
       </c>
       <c r="C614" t="s">
-        <v>37</v>
+        <v>1928</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="615" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>1745</v>
       </c>
       <c r="B615" t="s">
-        <v>1747</v>
+        <v>36</v>
       </c>
       <c r="C615" t="s">
-        <v>1748</v>
+        <v>37</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="616" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -15817,13 +15826,13 @@
         <v>1745</v>
       </c>
       <c r="B616" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="C616" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="617" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -15831,55 +15840,55 @@
         <v>1745</v>
       </c>
       <c r="B617" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="C617" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="618" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>1745</v>
       </c>
       <c r="B618" t="s">
-        <v>42</v>
+        <v>1753</v>
       </c>
       <c r="C618" t="s">
-        <v>43</v>
+        <v>1754</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="619" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>1745</v>
       </c>
       <c r="B619" t="s">
-        <v>1757</v>
+        <v>42</v>
       </c>
       <c r="C619" t="s">
-        <v>1758</v>
+        <v>43</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="620" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>1745</v>
       </c>
       <c r="B620" t="s">
-        <v>549</v>
+        <v>1757</v>
       </c>
       <c r="C620" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="621" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -15887,13 +15896,13 @@
         <v>1745</v>
       </c>
       <c r="B621" t="s">
-        <v>1762</v>
+        <v>549</v>
       </c>
       <c r="C621" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="622" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -15901,13 +15910,13 @@
         <v>1745</v>
       </c>
       <c r="B622" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="C622" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="623" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -15915,41 +15924,41 @@
         <v>1745</v>
       </c>
       <c r="B623" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="C623" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="624" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>1745</v>
       </c>
       <c r="B624" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="C624" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="625" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>1745</v>
       </c>
       <c r="B625" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="C625" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="626" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -15957,13 +15966,13 @@
         <v>1745</v>
       </c>
       <c r="B626" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="C626" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="D626" s="1" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="627" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -15971,13 +15980,13 @@
         <v>1745</v>
       </c>
       <c r="B627" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="C627" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="628" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -15985,13 +15994,13 @@
         <v>1745</v>
       </c>
       <c r="B628" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="C628" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="629" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -15999,13 +16008,13 @@
         <v>1745</v>
       </c>
       <c r="B629" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="C629" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="630" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16013,13 +16022,13 @@
         <v>1745</v>
       </c>
       <c r="B630" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="C630" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="D630" s="1" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="631" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16027,13 +16036,13 @@
         <v>1745</v>
       </c>
       <c r="B631" t="s">
-        <v>773</v>
+        <v>1789</v>
       </c>
       <c r="C631" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="632" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16041,13 +16050,13 @@
         <v>1745</v>
       </c>
       <c r="B632" t="s">
-        <v>1794</v>
+        <v>773</v>
       </c>
       <c r="C632" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="633" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16055,13 +16064,13 @@
         <v>1745</v>
       </c>
       <c r="B633" t="s">
-        <v>48</v>
+        <v>1794</v>
       </c>
       <c r="C633" t="s">
-        <v>49</v>
+        <v>1795</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="634" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16069,13 +16078,13 @@
         <v>1745</v>
       </c>
       <c r="B634" t="s">
-        <v>1798</v>
+        <v>48</v>
       </c>
       <c r="C634" t="s">
-        <v>1799</v>
+        <v>49</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="635" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16083,13 +16092,13 @@
         <v>1745</v>
       </c>
       <c r="B635" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="C635" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="636" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16097,13 +16106,13 @@
         <v>1745</v>
       </c>
       <c r="B636" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="C636" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="637" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16111,13 +16120,13 @@
         <v>1745</v>
       </c>
       <c r="B637" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="C637" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="638" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16125,13 +16134,13 @@
         <v>1745</v>
       </c>
       <c r="B638" t="s">
-        <v>51</v>
+        <v>1807</v>
       </c>
       <c r="C638" t="s">
-        <v>52</v>
+        <v>1808</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="639" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16139,13 +16148,13 @@
         <v>1745</v>
       </c>
       <c r="B639" t="s">
-        <v>1811</v>
+        <v>51</v>
       </c>
       <c r="C639" t="s">
-        <v>1812</v>
+        <v>52</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="640" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16153,13 +16162,13 @@
         <v>1745</v>
       </c>
       <c r="B640" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="C640" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="641" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16167,13 +16176,13 @@
         <v>1745</v>
       </c>
       <c r="B641" t="s">
-        <v>54</v>
+        <v>1814</v>
       </c>
       <c r="C641" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="642" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16181,13 +16190,13 @@
         <v>1745</v>
       </c>
       <c r="B642" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C642" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>59</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="643" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16195,13 +16204,13 @@
         <v>1745</v>
       </c>
       <c r="B643" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C643" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>1821</v>
+        <v>59</v>
       </c>
     </row>
     <row r="644" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16209,13 +16218,13 @@
         <v>1745</v>
       </c>
       <c r="B644" t="s">
-        <v>1822</v>
+        <v>60</v>
       </c>
       <c r="C644" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="645" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16223,13 +16232,13 @@
         <v>1745</v>
       </c>
       <c r="B645" t="s">
-        <v>63</v>
+        <v>1822</v>
       </c>
       <c r="C645" t="s">
-        <v>64</v>
+        <v>1823</v>
       </c>
       <c r="D645" s="1" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="646" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16237,41 +16246,41 @@
         <v>1745</v>
       </c>
       <c r="B646" t="s">
-        <v>1826</v>
+        <v>63</v>
       </c>
       <c r="C646" t="s">
-        <v>1827</v>
+        <v>64</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="647" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>1745</v>
       </c>
       <c r="B647" t="s">
-        <v>66</v>
+        <v>1826</v>
       </c>
       <c r="C647" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="648" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>1745</v>
       </c>
       <c r="B648" t="s">
-        <v>1831</v>
+        <v>66</v>
       </c>
       <c r="C648" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="649" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16279,13 +16288,13 @@
         <v>1745</v>
       </c>
       <c r="B649" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="C649" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="650" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16293,13 +16302,13 @@
         <v>1745</v>
       </c>
       <c r="B650" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="C650" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="651" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16307,13 +16316,13 @@
         <v>1745</v>
       </c>
       <c r="B651" t="s">
-        <v>72</v>
+        <v>1837</v>
       </c>
       <c r="C651" t="s">
-        <v>73</v>
+        <v>1838</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="652" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16321,13 +16330,13 @@
         <v>1745</v>
       </c>
       <c r="B652" t="s">
-        <v>1841</v>
+        <v>72</v>
       </c>
       <c r="C652" t="s">
-        <v>1842</v>
+        <v>73</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="653" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16335,13 +16344,13 @@
         <v>1745</v>
       </c>
       <c r="B653" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="C653" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="654" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16349,13 +16358,13 @@
         <v>1745</v>
       </c>
       <c r="B654" t="s">
-        <v>75</v>
+        <v>1844</v>
       </c>
       <c r="C654" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="655" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16363,41 +16372,41 @@
         <v>1745</v>
       </c>
       <c r="B655" t="s">
-        <v>1849</v>
+        <v>75</v>
       </c>
       <c r="C655" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="656" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>1745</v>
       </c>
       <c r="B656" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="C656" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="657" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>1745</v>
       </c>
       <c r="B657" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="C657" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="658" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16405,13 +16414,13 @@
         <v>1745</v>
       </c>
       <c r="B658" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="C658" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="659" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16419,69 +16428,69 @@
         <v>1745</v>
       </c>
       <c r="B659" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="C659" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="660" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>1745</v>
       </c>
       <c r="B660" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="C660" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="661" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>1745</v>
       </c>
       <c r="B661" t="s">
-        <v>78</v>
+        <v>1864</v>
       </c>
       <c r="C661" t="s">
-        <v>556</v>
+        <v>1865</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="662" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>1745</v>
       </c>
       <c r="B662" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C662" t="s">
-        <v>82</v>
+        <v>556</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="663" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>1745</v>
       </c>
       <c r="B663" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C663" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>86</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="664" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16489,13 +16498,13 @@
         <v>1745</v>
       </c>
       <c r="B664" t="s">
-        <v>1869</v>
+        <v>84</v>
       </c>
       <c r="C664" t="s">
-        <v>1870</v>
+        <v>85</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>1871</v>
+        <v>86</v>
       </c>
     </row>
     <row r="665" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16503,13 +16512,13 @@
         <v>1745</v>
       </c>
       <c r="B665" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="C665" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="666" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16517,13 +16526,13 @@
         <v>1745</v>
       </c>
       <c r="B666" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="C666" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="667" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16531,41 +16540,41 @@
         <v>1745</v>
       </c>
       <c r="B667" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="C667" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="668" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>1745</v>
       </c>
       <c r="B668" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="C668" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="669" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>1745</v>
       </c>
       <c r="B669" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="C669" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="670" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16573,13 +16582,13 @@
         <v>1745</v>
       </c>
       <c r="B670" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="C670" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="671" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16587,13 +16596,13 @@
         <v>1745</v>
       </c>
       <c r="B671" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="C671" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="672" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16601,13 +16610,13 @@
         <v>1745</v>
       </c>
       <c r="B672" t="s">
-        <v>90</v>
+        <v>1890</v>
       </c>
       <c r="C672" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>92</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="673" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16615,13 +16624,13 @@
         <v>1745</v>
       </c>
       <c r="B673" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C673" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>1895</v>
+        <v>92</v>
       </c>
     </row>
     <row r="674" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16629,13 +16638,13 @@
         <v>1745</v>
       </c>
       <c r="B674" t="s">
-        <v>1896</v>
+        <v>93</v>
       </c>
       <c r="C674" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="675" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16643,13 +16652,13 @@
         <v>1745</v>
       </c>
       <c r="B675" t="s">
-        <v>96</v>
+        <v>1896</v>
       </c>
       <c r="C675" t="s">
-        <v>97</v>
+        <v>1897</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>98</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="676" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16657,13 +16666,13 @@
         <v>1745</v>
       </c>
       <c r="B676" t="s">
-        <v>1899</v>
+        <v>96</v>
       </c>
       <c r="C676" t="s">
-        <v>1900</v>
+        <v>97</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>1901</v>
+        <v>98</v>
       </c>
     </row>
     <row r="677" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16671,13 +16680,13 @@
         <v>1745</v>
       </c>
       <c r="B677" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="C677" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="678" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16685,13 +16694,13 @@
         <v>1745</v>
       </c>
       <c r="B678" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="C678" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="679" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16699,13 +16708,13 @@
         <v>1745</v>
       </c>
       <c r="B679" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="C679" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="680" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16713,13 +16722,13 @@
         <v>1745</v>
       </c>
       <c r="B680" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="C680" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="681" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16727,13 +16736,13 @@
         <v>1745</v>
       </c>
       <c r="B681" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="C681" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="D681" s="1" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="682" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16741,13 +16750,13 @@
         <v>1745</v>
       </c>
       <c r="B682" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="C682" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="683" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16755,27 +16764,27 @@
         <v>1745</v>
       </c>
       <c r="B683" t="s">
-        <v>127</v>
+        <v>1917</v>
       </c>
       <c r="C683" t="s">
-        <v>128</v>
+        <v>1918</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="684" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>1921</v>
+        <v>1745</v>
       </c>
       <c r="B684" t="s">
-        <v>341</v>
+        <v>127</v>
       </c>
       <c r="C684" t="s">
-        <v>342</v>
+        <v>128</v>
       </c>
       <c r="D684" s="1" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="685" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16783,13 +16792,13 @@
         <v>1921</v>
       </c>
       <c r="B685" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C685" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D685" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="686" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16797,13 +16806,13 @@
         <v>1921</v>
       </c>
       <c r="B686" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C686" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="687" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16811,13 +16820,13 @@
         <v>1921</v>
       </c>
       <c r="B687" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C687" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="688" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16825,27 +16834,27 @@
         <v>1921</v>
       </c>
       <c r="B688" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C688" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D688" s="1" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="689" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>734</v>
+        <v>1921</v>
       </c>
       <c r="B689" t="s">
-        <v>735</v>
+        <v>353</v>
       </c>
       <c r="C689" t="s">
-        <v>736</v>
+        <v>354</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>737</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="690" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16853,13 +16862,13 @@
         <v>734</v>
       </c>
       <c r="B690" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C690" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D690" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="691" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16867,13 +16876,13 @@
         <v>734</v>
       </c>
       <c r="B691" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C691" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D691" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="692" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -16881,12 +16890,26 @@
         <v>734</v>
       </c>
       <c r="B692" t="s">
+        <v>741</v>
+      </c>
+      <c r="C692" t="s">
+        <v>742</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>734</v>
+      </c>
+      <c r="B693" t="s">
         <v>744</v>
       </c>
-      <c r="C692" t="s">
+      <c r="C693" t="s">
         <v>745</v>
       </c>
-      <c r="D692" s="1" t="s">
+      <c r="D693" s="1" t="s">
         <v>746</v>
       </c>
     </row>

--- a/ISO_External_Codeset.xlsx
+++ b/ISO_External_Codeset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/OpenBanking/GitHub/External_Internal_CodeSets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26E2C2D2-90DB-8B4A-8761-DDB8AC1E64CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{25BE9407-06D0-8E4C-A387-B459EC52E04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19820" xr2:uid="{1F7913A1-0E25-7542-869C-7CAE6950E66C}"/>
+    <workbookView xWindow="1100" yWindow="900" windowWidth="28040" windowHeight="17180" xr2:uid="{61C3DA60-482A-F94A-9F40-98EE003AA413}"/>
   </bookViews>
   <sheets>
     <sheet name="ISO_External_Codeset" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="1927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1930">
   <si>
     <t>Code Set</t>
   </si>
@@ -1290,6 +1290,15 @@
   </si>
   <si>
     <t>Document format is XSLT.</t>
+  </si>
+  <si>
+    <t>DCSV</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>Document format is CSV.</t>
   </si>
   <si>
     <t>ExternalDocumentLineType1Code</t>
@@ -6706,21 +6715,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7582C4B-1F4A-AE42-8942-5F3742A0A15A}">
-  <dimension ref="A1:E688"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC169398-6E64-1C43-BCD0-33A518D0452A}">
+  <dimension ref="A1:E689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
-      <selection activeCell="A680" sqref="A680"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -8743,21 +8743,21 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>407</v>
+      </c>
+      <c r="B139" t="s">
         <v>422</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>423</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>424</v>
-      </c>
-      <c r="D139" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B140" t="s">
         <v>426</v>
@@ -8771,7 +8771,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B141" t="s">
         <v>429</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B142" t="s">
         <v>432</v>
@@ -8799,7 +8799,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B143" t="s">
         <v>435</v>
@@ -8813,7 +8813,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B144" t="s">
         <v>438</v>
@@ -8827,7 +8827,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B145" t="s">
         <v>441</v>
@@ -8841,7 +8841,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B146" t="s">
         <v>444</v>
@@ -8855,7 +8855,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B147" t="s">
         <v>447</v>
@@ -8869,7 +8869,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B148" t="s">
         <v>450</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B149" t="s">
         <v>453</v>
@@ -8897,7 +8897,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B150" t="s">
         <v>456</v>
@@ -8911,7 +8911,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B151" t="s">
         <v>459</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B152" t="s">
         <v>462</v>
@@ -8939,7 +8939,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B153" t="s">
         <v>465</v>
@@ -8953,7 +8953,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B154" t="s">
         <v>468</v>
@@ -8967,7 +8967,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B155" t="s">
         <v>471</v>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B156" t="s">
         <v>474</v>
@@ -8995,7 +8995,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B157" t="s">
         <v>477</v>
@@ -9009,21 +9009,21 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>425</v>
+      </c>
+      <c r="B158" t="s">
         <v>480</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>481</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>482</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B159" t="s">
         <v>484</v>
@@ -9031,27 +9031,27 @@
       <c r="C159" t="s">
         <v>485</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="1" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>483</v>
+      </c>
+      <c r="B160" t="s">
         <v>487</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>488</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>489</v>
-      </c>
-      <c r="D160" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B161" t="s">
         <v>491</v>
@@ -9065,7 +9065,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B162" t="s">
         <v>494</v>
@@ -9079,27 +9079,27 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B163" t="s">
-        <v>356</v>
+        <v>497</v>
       </c>
       <c r="C163" t="s">
-        <v>357</v>
+        <v>498</v>
       </c>
       <c r="D163" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B164" t="s">
-        <v>498</v>
+        <v>356</v>
       </c>
       <c r="C164" t="s">
-        <v>499</v>
+        <v>357</v>
       </c>
       <c r="D164" t="s">
         <v>500</v>
@@ -9107,27 +9107,27 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B165" t="s">
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="C165" t="s">
-        <v>301</v>
+        <v>502</v>
       </c>
       <c r="D165" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B166" t="s">
-        <v>502</v>
+        <v>300</v>
       </c>
       <c r="C166" t="s">
-        <v>503</v>
+        <v>301</v>
       </c>
       <c r="D166" t="s">
         <v>504</v>
@@ -9135,7 +9135,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B167" t="s">
         <v>505</v>
@@ -9149,24 +9149,24 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B168" t="s">
-        <v>286</v>
+        <v>508</v>
       </c>
       <c r="C168" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D168" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B169" t="s">
-        <v>510</v>
+        <v>286</v>
       </c>
       <c r="C169" t="s">
         <v>511</v>
@@ -9177,7 +9177,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B170" t="s">
         <v>513</v>
@@ -9191,35 +9191,35 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B171" t="s">
-        <v>306</v>
+        <v>516</v>
       </c>
       <c r="C171" t="s">
-        <v>307</v>
+        <v>517</v>
       </c>
       <c r="D171" t="s">
-        <v>308</v>
+        <v>518</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B172" t="s">
-        <v>516</v>
+        <v>306</v>
       </c>
       <c r="C172" t="s">
-        <v>517</v>
+        <v>307</v>
       </c>
       <c r="D172" t="s">
-        <v>518</v>
+        <v>308</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B173" t="s">
         <v>519</v>
@@ -9233,7 +9233,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B174" t="s">
         <v>522</v>
@@ -9247,7 +9247,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B175" t="s">
         <v>525</v>
@@ -9261,7 +9261,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B176" t="s">
         <v>528</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B177" t="s">
         <v>531</v>
@@ -9289,7 +9289,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B178" t="s">
         <v>534</v>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B179" t="s">
         <v>537</v>
@@ -9317,7 +9317,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B180" t="s">
         <v>540</v>
@@ -9326,26 +9326,26 @@
         <v>541</v>
       </c>
       <c r="D180" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B181" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C181" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D181" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B182" t="s">
         <v>545</v>
@@ -9359,21 +9359,21 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>490</v>
+      </c>
+      <c r="B183" t="s">
         <v>548</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>549</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>550</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B184" t="s">
         <v>552</v>
@@ -9381,69 +9381,69 @@
       <c r="C184" t="s">
         <v>553</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="1" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B185" t="s">
-        <v>109</v>
+        <v>555</v>
       </c>
       <c r="C185" t="s">
-        <v>110</v>
+        <v>556</v>
       </c>
       <c r="D185" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B186" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C186" t="s">
-        <v>556</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>557</v>
+        <v>110</v>
+      </c>
+      <c r="D186" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B187" t="s">
-        <v>558</v>
+        <v>78</v>
       </c>
       <c r="C187" t="s">
         <v>559</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="1" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>551</v>
+      </c>
+      <c r="B188" t="s">
         <v>561</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>562</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>563</v>
-      </c>
-      <c r="D188" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B189" t="s">
         <v>565</v>
@@ -9457,7 +9457,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B190" t="s">
         <v>568</v>
@@ -9471,38 +9471,38 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>564</v>
+      </c>
+      <c r="B191" t="s">
         <v>571</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>572</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>573</v>
-      </c>
-      <c r="D191" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B192" t="s">
-        <v>199</v>
+        <v>575</v>
       </c>
       <c r="C192" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D192" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B193" t="s">
-        <v>577</v>
+        <v>199</v>
       </c>
       <c r="C193" t="s">
         <v>578</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B194" t="s">
         <v>580</v>
@@ -9527,7 +9527,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B195" t="s">
         <v>583</v>
@@ -9541,7 +9541,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B196" t="s">
         <v>586</v>
@@ -9555,21 +9555,21 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>574</v>
+      </c>
+      <c r="B197" t="s">
         <v>589</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>590</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>591</v>
-      </c>
-      <c r="D197" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B198" t="s">
         <v>593</v>
@@ -9583,7 +9583,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B199" t="s">
         <v>596</v>
@@ -9597,7 +9597,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B200" t="s">
         <v>599</v>
@@ -9611,7 +9611,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B201" t="s">
         <v>602</v>
@@ -9625,7 +9625,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B202" t="s">
         <v>605</v>
@@ -9639,7 +9639,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B203" t="s">
         <v>608</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B204" t="s">
         <v>611</v>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B205" t="s">
         <v>614</v>
@@ -9681,7 +9681,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B206" t="s">
         <v>617</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B207" t="s">
         <v>620</v>
@@ -9709,7 +9709,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B208" t="s">
         <v>623</v>
@@ -9723,7 +9723,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B209" t="s">
         <v>626</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B210" t="s">
         <v>629</v>
@@ -9751,7 +9751,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B211" t="s">
         <v>632</v>
@@ -9765,7 +9765,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B212" t="s">
         <v>635</v>
@@ -9779,7 +9779,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B213" t="s">
         <v>638</v>
@@ -9793,7 +9793,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B214" t="s">
         <v>641</v>
@@ -9807,7 +9807,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B215" t="s">
         <v>644</v>
@@ -9821,7 +9821,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B216" t="s">
         <v>647</v>
@@ -9835,7 +9835,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B217" t="s">
         <v>650</v>
@@ -9849,7 +9849,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B218" t="s">
         <v>653</v>
@@ -9863,7 +9863,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B219" t="s">
         <v>656</v>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B220" t="s">
         <v>659</v>
@@ -9891,7 +9891,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B221" t="s">
         <v>662</v>
@@ -9905,7 +9905,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B222" t="s">
         <v>665</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B223" t="s">
         <v>668</v>
@@ -9933,7 +9933,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B224" t="s">
         <v>671</v>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B225" t="s">
         <v>674</v>
@@ -9961,7 +9961,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B226" t="s">
         <v>677</v>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B227" t="s">
         <v>680</v>
@@ -9989,7 +9989,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B228" t="s">
         <v>683</v>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B229" t="s">
         <v>686</v>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B230" t="s">
         <v>689</v>
@@ -10031,7 +10031,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B231" t="s">
         <v>692</v>
@@ -10045,7 +10045,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B232" t="s">
         <v>695</v>
@@ -10059,7 +10059,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B233" t="s">
         <v>698</v>
@@ -10073,7 +10073,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B234" t="s">
         <v>701</v>
@@ -10087,7 +10087,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B235" t="s">
         <v>704</v>
@@ -10101,7 +10101,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B236" t="s">
         <v>707</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B237" t="s">
         <v>710</v>
@@ -10129,7 +10129,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B238" t="s">
         <v>713</v>
@@ -10143,7 +10143,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B239" t="s">
         <v>716</v>
@@ -10157,7 +10157,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B240" t="s">
         <v>719</v>
@@ -10171,7 +10171,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B241" t="s">
         <v>722</v>
@@ -10185,7 +10185,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B242" t="s">
         <v>725</v>
@@ -10199,7 +10199,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B243" t="s">
         <v>728</v>
@@ -10213,7 +10213,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B244" t="s">
         <v>731</v>
@@ -10227,21 +10227,21 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>592</v>
+      </c>
+      <c r="B245" t="s">
         <v>734</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" t="s">
         <v>735</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>736</v>
-      </c>
-      <c r="D245" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B246" t="s">
         <v>738</v>
@@ -10255,7 +10255,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B247" t="s">
         <v>741</v>
@@ -10269,7 +10269,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B248" t="s">
         <v>744</v>
@@ -10283,21 +10283,21 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
+        <v>737</v>
+      </c>
+      <c r="B249" t="s">
         <v>747</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" t="s">
         <v>748</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>749</v>
-      </c>
-      <c r="D249" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B250" t="s">
         <v>751</v>
@@ -10311,7 +10311,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B251" t="s">
         <v>754</v>
@@ -10325,7 +10325,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B252" t="s">
         <v>757</v>
@@ -10339,7 +10339,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B253" t="s">
         <v>760</v>
@@ -10353,7 +10353,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B254" t="s">
         <v>763</v>
@@ -10367,21 +10367,21 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>750</v>
+      </c>
+      <c r="B255" t="s">
         <v>766</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>767</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>768</v>
-      </c>
-      <c r="D255" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B256" t="s">
         <v>770</v>
@@ -10395,7 +10395,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B257" t="s">
         <v>773</v>
@@ -10409,7 +10409,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B258" t="s">
         <v>776</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B259" t="s">
         <v>779</v>
@@ -10437,7 +10437,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B260" t="s">
         <v>782</v>
@@ -10451,7 +10451,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B261" t="s">
         <v>785</v>
@@ -10465,24 +10465,24 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B262" t="s">
-        <v>296</v>
+        <v>788</v>
       </c>
       <c r="C262" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D262" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B263" t="s">
-        <v>790</v>
+        <v>296</v>
       </c>
       <c r="C263" t="s">
         <v>791</v>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B264" t="s">
         <v>793</v>
@@ -10507,27 +10507,27 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>769</v>
+      </c>
+      <c r="B265" t="s">
         <v>796</v>
       </c>
-      <c r="B265" t="s">
-        <v>296</v>
-      </c>
       <c r="C265" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="D265" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B266" t="s">
-        <v>798</v>
+        <v>296</v>
       </c>
       <c r="C266" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="D266" t="s">
         <v>800</v>
@@ -10535,7 +10535,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B267" t="s">
         <v>801</v>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B268" t="s">
         <v>804</v>
@@ -10557,13 +10557,13 @@
       <c r="C268" t="s">
         <v>805</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="D268" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B269" t="s">
         <v>807</v>
@@ -10571,13 +10571,13 @@
       <c r="C269" t="s">
         <v>808</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="1" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B270" t="s">
         <v>810</v>
@@ -10591,38 +10591,38 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B271" t="s">
-        <v>773</v>
+        <v>813</v>
       </c>
       <c r="C271" t="s">
-        <v>774</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
+      </c>
+      <c r="D271" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B272" t="s">
         <v>776</v>
       </c>
       <c r="C272" t="s">
-        <v>814</v>
-      </c>
-      <c r="D272" t="s">
-        <v>815</v>
+        <v>777</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B273" t="s">
-        <v>816</v>
+        <v>779</v>
       </c>
       <c r="C273" t="s">
         <v>817</v>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B274" t="s">
         <v>819</v>
@@ -10647,7 +10647,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B275" t="s">
         <v>822</v>
@@ -10661,7 +10661,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B276" t="s">
         <v>825</v>
@@ -10669,13 +10669,13 @@
       <c r="C276" t="s">
         <v>826</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="D276" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B277" t="s">
         <v>828</v>
@@ -10683,47 +10683,47 @@
       <c r="C277" t="s">
         <v>829</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="1" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B278" t="s">
-        <v>782</v>
+        <v>831</v>
       </c>
       <c r="C278" t="s">
-        <v>831</v>
-      </c>
-      <c r="D278" s="1" t="s">
         <v>832</v>
+      </c>
+      <c r="D278" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B279" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="C279" t="s">
-        <v>771</v>
+        <v>834</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B280" t="s">
-        <v>834</v>
+        <v>773</v>
       </c>
       <c r="C280" t="s">
-        <v>835</v>
+        <v>774</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>836</v>
@@ -10731,35 +10731,35 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B281" t="s">
-        <v>785</v>
+        <v>837</v>
       </c>
       <c r="C281" t="s">
-        <v>786</v>
-      </c>
-      <c r="D281" t="s">
-        <v>837</v>
+        <v>838</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B282" t="s">
-        <v>838</v>
+        <v>788</v>
       </c>
       <c r="C282" t="s">
-        <v>839</v>
-      </c>
-      <c r="D282" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D282" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B283" t="s">
         <v>841</v>
@@ -10767,13 +10767,13 @@
       <c r="C283" t="s">
         <v>842</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="1" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B284" t="s">
         <v>844</v>
@@ -10787,7 +10787,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B285" t="s">
         <v>847</v>
@@ -10801,21 +10801,21 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
+        <v>799</v>
+      </c>
+      <c r="B286" t="s">
         <v>850</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" t="s">
         <v>851</v>
       </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>852</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B287" t="s">
         <v>854</v>
@@ -10826,13 +10826,10 @@
       <c r="D287" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="E287" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B288" t="s">
         <v>857</v>
@@ -10843,10 +10840,13 @@
       <c r="D288" s="1" t="s">
         <v>859</v>
       </c>
+      <c r="E288" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B289" t="s">
         <v>860</v>
@@ -10854,16 +10854,13 @@
       <c r="C289" t="s">
         <v>861</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="E289" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B290" t="s">
         <v>863</v>
@@ -10880,27 +10877,30 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B291" t="s">
-        <v>138</v>
+        <v>866</v>
       </c>
       <c r="C291" t="s">
-        <v>139</v>
+        <v>867</v>
       </c>
       <c r="D291" t="s">
-        <v>866</v>
+        <v>868</v>
+      </c>
+      <c r="E291" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B292" t="s">
-        <v>867</v>
+        <v>138</v>
       </c>
       <c r="C292" t="s">
-        <v>868</v>
+        <v>139</v>
       </c>
       <c r="D292" t="s">
         <v>869</v>
@@ -10908,7 +10908,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B293" t="s">
         <v>870</v>
@@ -10922,7 +10922,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B294" t="s">
         <v>873</v>
@@ -10936,7 +10936,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B295" t="s">
         <v>876</v>
@@ -10944,13 +10944,13 @@
       <c r="C295" t="s">
         <v>877</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="D295" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B296" t="s">
         <v>879</v>
@@ -10958,13 +10958,13 @@
       <c r="C296" t="s">
         <v>880</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296" s="1" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B297" t="s">
         <v>882</v>
@@ -10978,7 +10978,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B298" t="s">
         <v>885</v>
@@ -10992,27 +10992,27 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B299" t="s">
-        <v>54</v>
+        <v>888</v>
       </c>
       <c r="C299" t="s">
-        <v>164</v>
+        <v>889</v>
       </c>
       <c r="D299" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B300" t="s">
-        <v>889</v>
+        <v>54</v>
       </c>
       <c r="C300" t="s">
-        <v>890</v>
+        <v>164</v>
       </c>
       <c r="D300" t="s">
         <v>891</v>
@@ -11020,7 +11020,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B301" t="s">
         <v>892</v>
@@ -11031,22 +11031,19 @@
       <c r="D301" t="s">
         <v>894</v>
       </c>
-      <c r="E301" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B302" t="s">
-        <v>135</v>
+        <v>895</v>
       </c>
       <c r="C302" t="s">
-        <v>136</v>
+        <v>896</v>
       </c>
       <c r="D302" t="s">
-        <v>137</v>
+        <v>897</v>
       </c>
       <c r="E302" t="s">
         <v>134</v>
@@ -11054,16 +11051,16 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B303" t="s">
-        <v>895</v>
+        <v>135</v>
       </c>
       <c r="C303" t="s">
-        <v>896</v>
+        <v>136</v>
       </c>
       <c r="D303" t="s">
-        <v>897</v>
+        <v>137</v>
       </c>
       <c r="E303" t="s">
         <v>134</v>
@@ -11071,7 +11068,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B304" t="s">
         <v>898</v>
@@ -11088,7 +11085,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B305" t="s">
         <v>901</v>
@@ -11105,38 +11102,38 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B306" t="s">
-        <v>181</v>
+        <v>904</v>
       </c>
       <c r="C306" t="s">
-        <v>182</v>
+        <v>905</v>
       </c>
       <c r="D306" t="s">
-        <v>183</v>
+        <v>906</v>
+      </c>
+      <c r="E306" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B307" t="s">
-        <v>904</v>
+        <v>181</v>
       </c>
       <c r="C307" t="s">
-        <v>905</v>
+        <v>182</v>
       </c>
       <c r="D307" t="s">
-        <v>906</v>
-      </c>
-      <c r="E307" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B308" t="s">
         <v>907</v>
@@ -11153,7 +11150,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B309" t="s">
         <v>910</v>
@@ -11170,7 +11167,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B310" t="s">
         <v>913</v>
@@ -11181,10 +11178,13 @@
       <c r="D310" t="s">
         <v>915</v>
       </c>
+      <c r="E310" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B311" t="s">
         <v>916</v>
@@ -11198,7 +11198,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B312" t="s">
         <v>919</v>
@@ -11212,7 +11212,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B313" t="s">
         <v>922</v>
@@ -11226,7 +11226,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B314" t="s">
         <v>925</v>
@@ -11240,7 +11240,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B315" t="s">
         <v>928</v>
@@ -11254,7 +11254,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B316" t="s">
         <v>931</v>
@@ -11268,7 +11268,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B317" t="s">
         <v>934</v>
@@ -11282,24 +11282,24 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B318" t="s">
-        <v>390</v>
+        <v>937</v>
       </c>
       <c r="C318" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D318" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B319" t="s">
-        <v>939</v>
+        <v>390</v>
       </c>
       <c r="C319" t="s">
         <v>940</v>
@@ -11310,7 +11310,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B320" t="s">
         <v>942</v>
@@ -11324,7 +11324,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B321" t="s">
         <v>945</v>
@@ -11338,7 +11338,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B322" t="s">
         <v>948</v>
@@ -11349,13 +11349,10 @@
       <c r="D322" t="s">
         <v>950</v>
       </c>
-      <c r="E322" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B323" t="s">
         <v>951</v>
@@ -11366,10 +11363,13 @@
       <c r="D323" t="s">
         <v>953</v>
       </c>
+      <c r="E323" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B324" t="s">
         <v>954</v>
@@ -11383,7 +11383,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B325" t="s">
         <v>957</v>
@@ -11397,7 +11397,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B326" t="s">
         <v>960</v>
@@ -11411,7 +11411,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B327" t="s">
         <v>963</v>
@@ -11425,7 +11425,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B328" t="s">
         <v>966</v>
@@ -11433,13 +11433,13 @@
       <c r="C328" t="s">
         <v>967</v>
       </c>
-      <c r="D328" s="1" t="s">
+      <c r="D328" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B329" t="s">
         <v>969</v>
@@ -11447,13 +11447,13 @@
       <c r="C329" t="s">
         <v>970</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329" s="1" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B330" t="s">
         <v>972</v>
@@ -11467,7 +11467,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B331" t="s">
         <v>975</v>
@@ -11481,7 +11481,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B332" t="s">
         <v>978</v>
@@ -11495,7 +11495,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B333" t="s">
         <v>981</v>
@@ -11509,7 +11509,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B334" t="s">
         <v>984</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B335" t="s">
         <v>987</v>
@@ -11537,7 +11537,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B336" t="s">
         <v>990</v>
@@ -11551,7 +11551,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B337" t="s">
         <v>993</v>
@@ -11565,7 +11565,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B338" t="s">
         <v>996</v>
@@ -11579,7 +11579,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B339" t="s">
         <v>999</v>
@@ -11590,13 +11590,10 @@
       <c r="D339" t="s">
         <v>1001</v>
       </c>
-      <c r="E339" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B340" t="s">
         <v>1002</v>
@@ -11613,7 +11610,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B341" t="s">
         <v>1005</v>
@@ -11621,13 +11618,16 @@
       <c r="C341" t="s">
         <v>1006</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="D341" t="s">
         <v>1007</v>
+      </c>
+      <c r="E341" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B342" t="s">
         <v>1008</v>
@@ -11635,13 +11635,13 @@
       <c r="C342" t="s">
         <v>1009</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="1" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B343" t="s">
         <v>1011</v>
@@ -11655,7 +11655,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B344" t="s">
         <v>1014</v>
@@ -11669,7 +11669,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B345" t="s">
         <v>1017</v>
@@ -11683,7 +11683,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B346" t="s">
         <v>1020</v>
@@ -11694,13 +11694,10 @@
       <c r="D346" t="s">
         <v>1022</v>
       </c>
-      <c r="E346" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B347" t="s">
         <v>1023</v>
@@ -11711,10 +11708,13 @@
       <c r="D347" t="s">
         <v>1025</v>
       </c>
+      <c r="E347" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B348" t="s">
         <v>1026</v>
@@ -11728,7 +11728,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B349" t="s">
         <v>1029</v>
@@ -11742,7 +11742,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B350" t="s">
         <v>1032</v>
@@ -11756,7 +11756,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B351" t="s">
         <v>1035</v>
@@ -11770,7 +11770,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B352" t="s">
         <v>1038</v>
@@ -11784,7 +11784,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B353" t="s">
         <v>1041</v>
@@ -11795,13 +11795,10 @@
       <c r="D353" t="s">
         <v>1043</v>
       </c>
-      <c r="E353" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B354" t="s">
         <v>1044</v>
@@ -11812,10 +11809,13 @@
       <c r="D354" t="s">
         <v>1046</v>
       </c>
+      <c r="E354" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B355" t="s">
         <v>1047</v>
@@ -11823,13 +11823,13 @@
       <c r="C355" t="s">
         <v>1048</v>
       </c>
-      <c r="D355" s="1" t="s">
+      <c r="D355" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B356" t="s">
         <v>1050</v>
@@ -11843,7 +11843,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B357" t="s">
         <v>1053</v>
@@ -11851,13 +11851,13 @@
       <c r="C357" t="s">
         <v>1054</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D357" s="1" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B358" t="s">
         <v>1056</v>
@@ -11865,13 +11865,13 @@
       <c r="C358" t="s">
         <v>1057</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="D358" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B359" t="s">
         <v>1059</v>
@@ -11885,7 +11885,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B360" t="s">
         <v>1062</v>
@@ -11893,13 +11893,13 @@
       <c r="C360" t="s">
         <v>1063</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D360" s="1" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B361" t="s">
         <v>1065</v>
@@ -11913,7 +11913,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B362" t="s">
         <v>1068</v>
@@ -11927,7 +11927,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B363" t="s">
         <v>1071</v>
@@ -11941,7 +11941,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B364" t="s">
         <v>1074</v>
@@ -11952,13 +11952,10 @@
       <c r="D364" t="s">
         <v>1076</v>
       </c>
-      <c r="E364" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B365" t="s">
         <v>1077</v>
@@ -11970,12 +11967,12 @@
         <v>1079</v>
       </c>
       <c r="E365" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B366" t="s">
         <v>1080</v>
@@ -11992,7 +11989,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B367" t="s">
         <v>1083</v>
@@ -12004,12 +12001,12 @@
         <v>1085</v>
       </c>
       <c r="E367" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B368" t="s">
         <v>1086</v>
@@ -12026,7 +12023,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B369" t="s">
         <v>1089</v>
@@ -12043,7 +12040,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B370" t="s">
         <v>1092</v>
@@ -12054,10 +12051,13 @@
       <c r="D370" t="s">
         <v>1094</v>
       </c>
+      <c r="E370" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B371" t="s">
         <v>1095</v>
@@ -12068,13 +12068,10 @@
       <c r="D371" t="s">
         <v>1097</v>
       </c>
-      <c r="E371" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B372" t="s">
         <v>1098</v>
@@ -12086,12 +12083,12 @@
         <v>1100</v>
       </c>
       <c r="E372" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B373" t="s">
         <v>1101</v>
@@ -12103,29 +12100,32 @@
         <v>1103</v>
       </c>
       <c r="E373" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B374" t="s">
-        <v>193</v>
+        <v>1104</v>
       </c>
       <c r="C374" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D374" t="s">
-        <v>1105</v>
+        <v>1106</v>
+      </c>
+      <c r="E374" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B375" t="s">
-        <v>1106</v>
+        <v>193</v>
       </c>
       <c r="C375" t="s">
         <v>1107</v>
@@ -12136,7 +12136,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B376" t="s">
         <v>1109</v>
@@ -12147,13 +12147,10 @@
       <c r="D376" t="s">
         <v>1111</v>
       </c>
-      <c r="E376" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B377" t="s">
         <v>1112</v>
@@ -12164,10 +12161,13 @@
       <c r="D377" t="s">
         <v>1114</v>
       </c>
+      <c r="E377" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B378" t="s">
         <v>1115</v>
@@ -12178,13 +12178,10 @@
       <c r="D378" t="s">
         <v>1117</v>
       </c>
-      <c r="E378" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B379" t="s">
         <v>1118</v>
@@ -12196,38 +12193,38 @@
         <v>1120</v>
       </c>
       <c r="E379" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B380" t="s">
-        <v>223</v>
+        <v>1121</v>
       </c>
       <c r="C380" t="s">
-        <v>224</v>
+        <v>1122</v>
       </c>
       <c r="D380" t="s">
-        <v>225</v>
+        <v>1123</v>
       </c>
       <c r="E380" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B381" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C381" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="D381" t="s">
-        <v>1121</v>
+        <v>225</v>
       </c>
       <c r="E381" t="s">
         <v>134</v>
@@ -12235,16 +12232,16 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B382" t="s">
-        <v>396</v>
+        <v>229</v>
       </c>
       <c r="C382" t="s">
-        <v>1122</v>
+        <v>194</v>
       </c>
       <c r="D382" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="E382" t="s">
         <v>134</v>
@@ -12252,10 +12249,10 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B383" t="s">
-        <v>1124</v>
+        <v>396</v>
       </c>
       <c r="C383" t="s">
         <v>1125</v>
@@ -12269,24 +12266,27 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B384" t="s">
-        <v>196</v>
+        <v>1127</v>
       </c>
       <c r="C384" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D384" t="s">
-        <v>1128</v>
+        <v>1129</v>
+      </c>
+      <c r="E384" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B385" t="s">
-        <v>1129</v>
+        <v>196</v>
       </c>
       <c r="C385" t="s">
         <v>1130</v>
@@ -12297,7 +12297,7 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B386" t="s">
         <v>1132</v>
@@ -12308,13 +12308,10 @@
       <c r="D386" t="s">
         <v>1134</v>
       </c>
-      <c r="E386" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B387" t="s">
         <v>1135</v>
@@ -12325,44 +12322,44 @@
       <c r="D387" t="s">
         <v>1137</v>
       </c>
+      <c r="E387" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B388" t="s">
-        <v>158</v>
+        <v>1138</v>
       </c>
       <c r="C388" t="s">
-        <v>159</v>
+        <v>1139</v>
       </c>
       <c r="D388" t="s">
-        <v>160</v>
-      </c>
-      <c r="E388" t="s">
-        <v>144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B389" t="s">
-        <v>1138</v>
+        <v>158</v>
       </c>
       <c r="C389" t="s">
-        <v>1139</v>
+        <v>159</v>
       </c>
       <c r="D389" t="s">
-        <v>1140</v>
+        <v>160</v>
       </c>
       <c r="E389" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B390" t="s">
         <v>1141</v>
@@ -12379,7 +12376,7 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B391" t="s">
         <v>1144</v>
@@ -12391,12 +12388,12 @@
         <v>1146</v>
       </c>
       <c r="E391" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B392" t="s">
         <v>1147</v>
@@ -12407,10 +12404,13 @@
       <c r="D392" t="s">
         <v>1149</v>
       </c>
+      <c r="E392" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B393" t="s">
         <v>1150</v>
@@ -12421,13 +12421,10 @@
       <c r="D393" t="s">
         <v>1152</v>
       </c>
-      <c r="E393" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B394" t="s">
         <v>1153</v>
@@ -12444,7 +12441,7 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B395" t="s">
         <v>1156</v>
@@ -12456,12 +12453,12 @@
         <v>1158</v>
       </c>
       <c r="E395" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B396" t="s">
         <v>1159</v>
@@ -12478,7 +12475,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B397" t="s">
         <v>1162</v>
@@ -12490,21 +12487,21 @@
         <v>1164</v>
       </c>
       <c r="E397" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B398" t="s">
-        <v>375</v>
+        <v>1165</v>
       </c>
       <c r="C398" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D398" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="E398" t="s">
         <v>134</v>
@@ -12512,16 +12509,16 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B399" t="s">
-        <v>184</v>
+        <v>375</v>
       </c>
       <c r="C399" t="s">
-        <v>185</v>
+        <v>1168</v>
       </c>
       <c r="D399" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="E399" t="s">
         <v>134</v>
@@ -12529,24 +12526,24 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B400" t="s">
-        <v>1168</v>
+        <v>184</v>
       </c>
       <c r="C400" t="s">
-        <v>1169</v>
+        <v>185</v>
       </c>
       <c r="D400" t="s">
         <v>1170</v>
       </c>
       <c r="E400" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B401" t="s">
         <v>1171</v>
@@ -12558,21 +12555,21 @@
         <v>1173</v>
       </c>
       <c r="E401" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B402" t="s">
-        <v>190</v>
+        <v>1174</v>
       </c>
       <c r="C402" t="s">
-        <v>191</v>
+        <v>1175</v>
       </c>
       <c r="D402" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="E402" t="s">
         <v>134</v>
@@ -12580,13 +12577,13 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B403" t="s">
-        <v>1175</v>
+        <v>190</v>
       </c>
       <c r="C403" t="s">
-        <v>1176</v>
+        <v>191</v>
       </c>
       <c r="D403" t="s">
         <v>1177</v>
@@ -12597,7 +12594,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B404" t="s">
         <v>1178</v>
@@ -12614,7 +12611,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B405" t="s">
         <v>1181</v>
@@ -12631,7 +12628,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B406" t="s">
         <v>1184</v>
@@ -12648,7 +12645,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B407" t="s">
         <v>1187</v>
@@ -12659,10 +12656,13 @@
       <c r="D407" t="s">
         <v>1189</v>
       </c>
+      <c r="E407" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B408" t="s">
         <v>1190</v>
@@ -12673,13 +12673,10 @@
       <c r="D408" t="s">
         <v>1192</v>
       </c>
-      <c r="E408" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B409" t="s">
         <v>1193</v>
@@ -12691,12 +12688,12 @@
         <v>1195</v>
       </c>
       <c r="E409" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B410" t="s">
         <v>1196</v>
@@ -12708,12 +12705,12 @@
         <v>1198</v>
       </c>
       <c r="E410" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B411" t="s">
         <v>1199</v>
@@ -12724,10 +12721,13 @@
       <c r="D411" t="s">
         <v>1201</v>
       </c>
+      <c r="E411" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B412" t="s">
         <v>1202</v>
@@ -12741,7 +12741,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B413" t="s">
         <v>1205</v>
@@ -12755,7 +12755,7 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B414" t="s">
         <v>1208</v>
@@ -12769,7 +12769,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B415" t="s">
         <v>1211</v>
@@ -12780,13 +12780,10 @@
       <c r="D415" t="s">
         <v>1213</v>
       </c>
-      <c r="E415" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B416" t="s">
         <v>1214</v>
@@ -12798,12 +12795,12 @@
         <v>1216</v>
       </c>
       <c r="E416" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B417" t="s">
         <v>1217</v>
@@ -12814,10 +12811,13 @@
       <c r="D417" t="s">
         <v>1219</v>
       </c>
+      <c r="E417" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B418" t="s">
         <v>1220</v>
@@ -12831,58 +12831,58 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B419" t="s">
-        <v>141</v>
+        <v>1223</v>
       </c>
       <c r="C419" t="s">
-        <v>142</v>
+        <v>1224</v>
       </c>
       <c r="D419" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B420" t="s">
-        <v>1224</v>
+        <v>141</v>
       </c>
       <c r="C420" t="s">
-        <v>1225</v>
+        <v>142</v>
       </c>
       <c r="D420" t="s">
         <v>1226</v>
       </c>
-      <c r="E420" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B421" t="s">
-        <v>280</v>
+        <v>1227</v>
       </c>
       <c r="C421" t="s">
-        <v>281</v>
+        <v>1228</v>
       </c>
       <c r="D421" t="s">
-        <v>1227</v>
+        <v>1229</v>
+      </c>
+      <c r="E421" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B422" t="s">
-        <v>1228</v>
+        <v>280</v>
       </c>
       <c r="C422" t="s">
-        <v>1229</v>
+        <v>281</v>
       </c>
       <c r="D422" t="s">
         <v>1230</v>
@@ -12890,38 +12890,38 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B423" t="s">
-        <v>145</v>
+        <v>1231</v>
       </c>
       <c r="C423" t="s">
-        <v>146</v>
+        <v>1232</v>
       </c>
       <c r="D423" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E423" t="s">
-        <v>148</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B424" t="s">
-        <v>1232</v>
+        <v>145</v>
       </c>
       <c r="C424" t="s">
-        <v>1233</v>
+        <v>146</v>
       </c>
       <c r="D424" t="s">
         <v>1234</v>
       </c>
+      <c r="E424" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B425" t="s">
         <v>1235</v>
@@ -12932,33 +12932,33 @@
       <c r="D425" t="s">
         <v>1237</v>
       </c>
-      <c r="E425" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B426" t="s">
-        <v>149</v>
+        <v>1238</v>
       </c>
       <c r="C426" t="s">
-        <v>150</v>
+        <v>1239</v>
       </c>
       <c r="D426" t="s">
-        <v>1238</v>
+        <v>1240</v>
+      </c>
+      <c r="E426" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B427" t="s">
-        <v>1239</v>
+        <v>149</v>
       </c>
       <c r="C427" t="s">
-        <v>1240</v>
+        <v>150</v>
       </c>
       <c r="D427" t="s">
         <v>1241</v>
@@ -12966,38 +12966,35 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B428" t="s">
-        <v>155</v>
+        <v>1242</v>
       </c>
       <c r="C428" t="s">
-        <v>156</v>
+        <v>1243</v>
       </c>
       <c r="D428" t="s">
-        <v>157</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B429" t="s">
-        <v>1242</v>
+        <v>155</v>
       </c>
       <c r="C429" t="s">
-        <v>1243</v>
+        <v>156</v>
       </c>
       <c r="D429" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E429" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B430" t="s">
         <v>1245</v>
@@ -13008,10 +13005,13 @@
       <c r="D430" t="s">
         <v>1247</v>
       </c>
+      <c r="E430" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B431" t="s">
         <v>1248</v>
@@ -13022,13 +13022,10 @@
       <c r="D431" t="s">
         <v>1250</v>
       </c>
-      <c r="E431" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B432" t="s">
         <v>1251</v>
@@ -13039,30 +13036,30 @@
       <c r="D432" t="s">
         <v>1253</v>
       </c>
+      <c r="E432" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B433" t="s">
-        <v>399</v>
+        <v>1254</v>
       </c>
       <c r="C433" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D433" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E433" t="s">
-        <v>134</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B434" t="s">
-        <v>1256</v>
+        <v>399</v>
       </c>
       <c r="C434" t="s">
         <v>1257</v>
@@ -13076,16 +13073,16 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B435" t="s">
-        <v>169</v>
+        <v>1259</v>
       </c>
       <c r="C435" t="s">
-        <v>170</v>
+        <v>1260</v>
       </c>
       <c r="D435" t="s">
-        <v>171</v>
+        <v>1261</v>
       </c>
       <c r="E435" t="s">
         <v>134</v>
@@ -13093,49 +13090,52 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B436" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C436" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D436" t="s">
-        <v>177</v>
+        <v>171</v>
+      </c>
+      <c r="E436" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B437" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C437" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D437" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B438" t="s">
-        <v>1259</v>
+        <v>178</v>
       </c>
       <c r="C438" t="s">
-        <v>1260</v>
+        <v>179</v>
       </c>
       <c r="D438" t="s">
-        <v>1261</v>
+        <v>180</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B439" t="s">
         <v>1262</v>
@@ -13146,13 +13146,10 @@
       <c r="D439" t="s">
         <v>1264</v>
       </c>
-      <c r="E439" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B440" t="s">
         <v>1265</v>
@@ -13169,7 +13166,7 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B441" t="s">
         <v>1268</v>
@@ -13180,10 +13177,13 @@
       <c r="D441" t="s">
         <v>1270</v>
       </c>
+      <c r="E441" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B442" t="s">
         <v>1271</v>
@@ -13197,7 +13197,7 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B443" t="s">
         <v>1274</v>
@@ -13211,7 +13211,7 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B444" t="s">
         <v>1277</v>
@@ -13225,7 +13225,7 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B445" t="s">
         <v>1280</v>
@@ -13239,7 +13239,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B446" t="s">
         <v>1283</v>
@@ -13253,7 +13253,7 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B447" t="s">
         <v>1286</v>
@@ -13267,38 +13267,38 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B448" t="s">
-        <v>199</v>
+        <v>1289</v>
       </c>
       <c r="C448" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="D448" t="s">
-        <v>201</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B449" t="s">
-        <v>322</v>
+        <v>199</v>
       </c>
       <c r="C449" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="D449" t="s">
-        <v>1291</v>
+        <v>201</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B450" t="s">
-        <v>1292</v>
+        <v>322</v>
       </c>
       <c r="C450" t="s">
         <v>1293</v>
@@ -13309,7 +13309,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B451" t="s">
         <v>1295</v>
@@ -13323,7 +13323,7 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B452" t="s">
         <v>1298</v>
@@ -13337,7 +13337,7 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B453" t="s">
         <v>1301</v>
@@ -13348,13 +13348,10 @@
       <c r="D453" t="s">
         <v>1303</v>
       </c>
-      <c r="E453" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B454" t="s">
         <v>1304</v>
@@ -13371,7 +13368,7 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B455" t="s">
         <v>1307</v>
@@ -13388,7 +13385,7 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B456" t="s">
         <v>1310</v>
@@ -13400,12 +13397,12 @@
         <v>1312</v>
       </c>
       <c r="E456" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B457" t="s">
         <v>1313</v>
@@ -13416,10 +13413,13 @@
       <c r="D457" t="s">
         <v>1315</v>
       </c>
+      <c r="E457" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B458" t="s">
         <v>1316</v>
@@ -13433,7 +13433,7 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B459" t="s">
         <v>1319</v>
@@ -13447,63 +13447,63 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B460" t="s">
-        <v>208</v>
+        <v>1322</v>
       </c>
       <c r="C460" t="s">
-        <v>209</v>
+        <v>1323</v>
       </c>
       <c r="D460" t="s">
-        <v>210</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B461" t="s">
-        <v>1322</v>
+        <v>208</v>
       </c>
       <c r="C461" t="s">
-        <v>1323</v>
+        <v>209</v>
       </c>
       <c r="D461" t="s">
-        <v>1324</v>
+        <v>210</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B462" t="s">
-        <v>211</v>
+        <v>1325</v>
       </c>
       <c r="C462" t="s">
-        <v>212</v>
+        <v>1326</v>
       </c>
       <c r="D462" t="s">
-        <v>213</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B463" t="s">
-        <v>1325</v>
+        <v>211</v>
       </c>
       <c r="C463" t="s">
-        <v>1326</v>
+        <v>212</v>
       </c>
       <c r="D463" t="s">
-        <v>1327</v>
+        <v>213</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B464" t="s">
         <v>1328</v>
@@ -13511,13 +13511,13 @@
       <c r="C464" t="s">
         <v>1329</v>
       </c>
-      <c r="D464" s="1" t="s">
+      <c r="D464" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B465" t="s">
         <v>1331</v>
@@ -13525,13 +13525,13 @@
       <c r="C465" t="s">
         <v>1332</v>
       </c>
-      <c r="D465" t="s">
+      <c r="D465" s="1" t="s">
         <v>1333</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B466" t="s">
         <v>1334</v>
@@ -13545,7 +13545,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B467" t="s">
         <v>1337</v>
@@ -13559,7 +13559,7 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B468" t="s">
         <v>1340</v>
@@ -13570,13 +13570,10 @@
       <c r="D468" t="s">
         <v>1342</v>
       </c>
-      <c r="E468" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B469" t="s">
         <v>1343</v>
@@ -13587,10 +13584,13 @@
       <c r="D469" t="s">
         <v>1345</v>
       </c>
+      <c r="E469" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B470" t="s">
         <v>1346</v>
@@ -13604,7 +13604,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B471" t="s">
         <v>1349</v>
@@ -13618,7 +13618,7 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B472" t="s">
         <v>1352</v>
@@ -13632,7 +13632,7 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B473" t="s">
         <v>1355</v>
@@ -13646,7 +13646,7 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B474" t="s">
         <v>1358</v>
@@ -13660,7 +13660,7 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B475" t="s">
         <v>1361</v>
@@ -13674,7 +13674,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B476" t="s">
         <v>1364</v>
@@ -13688,7 +13688,7 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B477" t="s">
         <v>1367</v>
@@ -13702,7 +13702,7 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B478" t="s">
         <v>1370</v>
@@ -13716,7 +13716,7 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B479" t="s">
         <v>1373</v>
@@ -13730,7 +13730,7 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B480" t="s">
         <v>1376</v>
@@ -13744,7 +13744,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B481" t="s">
         <v>1379</v>
@@ -13758,7 +13758,7 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B482" t="s">
         <v>1382</v>
@@ -13772,7 +13772,7 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B483" t="s">
         <v>1385</v>
@@ -13786,7 +13786,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B484" t="s">
         <v>1388</v>
@@ -13800,7 +13800,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B485" t="s">
         <v>1391</v>
@@ -13814,7 +13814,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B486" t="s">
         <v>1394</v>
@@ -13828,7 +13828,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B487" t="s">
         <v>1397</v>
@@ -13842,7 +13842,7 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B488" t="s">
         <v>1400</v>
@@ -13856,7 +13856,7 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B489" t="s">
         <v>1403</v>
@@ -13867,13 +13867,10 @@
       <c r="D489" t="s">
         <v>1405</v>
       </c>
-      <c r="E489" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B490" t="s">
         <v>1406</v>
@@ -13890,50 +13887,50 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B491" t="s">
         <v>1409</v>
       </c>
       <c r="C491" t="s">
-        <v>153</v>
+        <v>1410</v>
       </c>
       <c r="D491" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="E491" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B492" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C492" t="s">
-        <v>1412</v>
+        <v>153</v>
       </c>
       <c r="D492" t="s">
         <v>1413</v>
       </c>
       <c r="E492" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B493" t="s">
-        <v>172</v>
+        <v>1414</v>
       </c>
       <c r="C493" t="s">
-        <v>173</v>
+        <v>1415</v>
       </c>
       <c r="D493" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="E493" t="s">
         <v>148</v>
@@ -13941,27 +13938,27 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B494" t="s">
-        <v>286</v>
+        <v>172</v>
       </c>
       <c r="C494" t="s">
-        <v>1415</v>
+        <v>173</v>
       </c>
       <c r="D494" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="E494" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B495" t="s">
-        <v>1417</v>
+        <v>286</v>
       </c>
       <c r="C495" t="s">
         <v>1418</v>
@@ -13969,10 +13966,13 @@
       <c r="D495" t="s">
         <v>1419</v>
       </c>
+      <c r="E495" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B496" t="s">
         <v>1420</v>
@@ -13983,75 +13983,75 @@
       <c r="D496" t="s">
         <v>1422</v>
       </c>
-      <c r="E496" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B497" t="s">
-        <v>217</v>
+        <v>1423</v>
       </c>
       <c r="C497" t="s">
-        <v>218</v>
+        <v>1424</v>
       </c>
       <c r="D497" t="s">
-        <v>219</v>
+        <v>1425</v>
       </c>
       <c r="E497" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B498" t="s">
-        <v>1423</v>
+        <v>217</v>
       </c>
       <c r="C498" t="s">
-        <v>1424</v>
+        <v>218</v>
       </c>
       <c r="D498" t="s">
-        <v>1425</v>
+        <v>219</v>
+      </c>
+      <c r="E498" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B499" t="s">
-        <v>232</v>
+        <v>1426</v>
       </c>
       <c r="C499" t="s">
-        <v>233</v>
+        <v>1427</v>
       </c>
       <c r="D499" t="s">
-        <v>1426</v>
-      </c>
-      <c r="E499" t="s">
-        <v>134</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B500" t="s">
-        <v>1427</v>
+        <v>232</v>
       </c>
       <c r="C500" t="s">
-        <v>1428</v>
+        <v>233</v>
       </c>
       <c r="D500" t="s">
         <v>1429</v>
       </c>
+      <c r="E500" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B501" t="s">
         <v>1430</v>
@@ -14062,22 +14062,19 @@
       <c r="D501" t="s">
         <v>1432</v>
       </c>
-      <c r="E501" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B502" t="s">
-        <v>552</v>
+        <v>1433</v>
       </c>
       <c r="C502" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D502" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="E502" t="s">
         <v>148</v>
@@ -14085,10 +14082,10 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B503" t="s">
-        <v>1435</v>
+        <v>555</v>
       </c>
       <c r="C503" t="s">
         <v>1436</v>
@@ -14096,10 +14093,13 @@
       <c r="D503" t="s">
         <v>1437</v>
       </c>
+      <c r="E503" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B504" t="s">
         <v>1438</v>
@@ -14113,7 +14113,7 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B505" t="s">
         <v>1441</v>
@@ -14127,7 +14127,7 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B506" t="s">
         <v>1444</v>
@@ -14138,13 +14138,10 @@
       <c r="D506" t="s">
         <v>1446</v>
       </c>
-      <c r="E506" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B507" t="s">
         <v>1447</v>
@@ -14155,10 +14152,13 @@
       <c r="D507" t="s">
         <v>1449</v>
       </c>
+      <c r="E507" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B508" t="s">
         <v>1450</v>
@@ -14169,13 +14169,10 @@
       <c r="D508" t="s">
         <v>1452</v>
       </c>
-      <c r="E508" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B509" t="s">
         <v>1453</v>
@@ -14186,10 +14183,13 @@
       <c r="D509" t="s">
         <v>1455</v>
       </c>
+      <c r="E509" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B510" t="s">
         <v>1456</v>
@@ -14203,7 +14203,7 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B511" t="s">
         <v>1459</v>
@@ -14214,13 +14214,10 @@
       <c r="D511" t="s">
         <v>1461</v>
       </c>
-      <c r="E511" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B512" t="s">
         <v>1462</v>
@@ -14231,10 +14228,13 @@
       <c r="D512" t="s">
         <v>1464</v>
       </c>
+      <c r="E512" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B513" t="s">
         <v>1465</v>
@@ -14248,7 +14248,7 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B514" t="s">
         <v>1468</v>
@@ -14259,13 +14259,10 @@
       <c r="D514" t="s">
         <v>1470</v>
       </c>
-      <c r="E514" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B515" t="s">
         <v>1471</v>
@@ -14277,12 +14274,12 @@
         <v>1473</v>
       </c>
       <c r="E515" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B516" t="s">
         <v>1474</v>
@@ -14293,10 +14290,13 @@
       <c r="D516" t="s">
         <v>1476</v>
       </c>
+      <c r="E516" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B517" t="s">
         <v>1477</v>
@@ -14307,13 +14307,10 @@
       <c r="D517" t="s">
         <v>1479</v>
       </c>
-      <c r="E517" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B518" t="s">
         <v>1480</v>
@@ -14330,7 +14327,7 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B519" t="s">
         <v>1483</v>
@@ -14347,7 +14344,7 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B520" t="s">
         <v>1486</v>
@@ -14364,7 +14361,7 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B521" t="s">
         <v>1489</v>
@@ -14376,12 +14373,12 @@
         <v>1491</v>
       </c>
       <c r="E521" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B522" t="s">
         <v>1492</v>
@@ -14392,10 +14389,13 @@
       <c r="D522" t="s">
         <v>1494</v>
       </c>
+      <c r="E522" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B523" t="s">
         <v>1495</v>
@@ -14409,7 +14409,7 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B524" t="s">
         <v>1498</v>
@@ -14420,13 +14420,10 @@
       <c r="D524" t="s">
         <v>1500</v>
       </c>
-      <c r="E524" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B525" t="s">
         <v>1501</v>
@@ -14437,10 +14434,13 @@
       <c r="D525" t="s">
         <v>1503</v>
       </c>
+      <c r="E525" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B526" t="s">
         <v>1504</v>
@@ -14451,13 +14451,10 @@
       <c r="D526" t="s">
         <v>1506</v>
       </c>
-      <c r="E526" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B527" t="s">
         <v>1507</v>
@@ -14474,16 +14471,16 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B528" t="s">
-        <v>131</v>
+        <v>1510</v>
       </c>
       <c r="C528" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D528" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="E528" t="s">
         <v>134</v>
@@ -14491,10 +14488,10 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B529" t="s">
-        <v>1512</v>
+        <v>131</v>
       </c>
       <c r="C529" t="s">
         <v>1513</v>
@@ -14502,41 +14499,44 @@
       <c r="D529" t="s">
         <v>1514</v>
       </c>
+      <c r="E529" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B530" t="s">
-        <v>271</v>
+        <v>1515</v>
       </c>
       <c r="C530" t="s">
-        <v>272</v>
+        <v>1516</v>
       </c>
       <c r="D530" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E530" t="s">
-        <v>134</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B531" t="s">
-        <v>1516</v>
+        <v>271</v>
       </c>
       <c r="C531" t="s">
-        <v>1517</v>
+        <v>272</v>
       </c>
       <c r="D531" t="s">
         <v>1518</v>
       </c>
+      <c r="E531" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B532" t="s">
         <v>1519</v>
@@ -14550,7 +14550,7 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B533" t="s">
         <v>1522</v>
@@ -14564,7 +14564,7 @@
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B534" t="s">
         <v>1525</v>
@@ -14578,7 +14578,7 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B535" t="s">
         <v>1528</v>
@@ -14592,7 +14592,7 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B536" t="s">
         <v>1531</v>
@@ -14606,7 +14606,7 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B537" t="s">
         <v>1534</v>
@@ -14620,7 +14620,7 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B538" t="s">
         <v>1537</v>
@@ -14631,13 +14631,10 @@
       <c r="D538" t="s">
         <v>1539</v>
       </c>
-      <c r="E538" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B539" t="s">
         <v>1540</v>
@@ -14648,10 +14645,13 @@
       <c r="D539" t="s">
         <v>1542</v>
       </c>
+      <c r="E539" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B540" t="s">
         <v>1543</v>
@@ -14662,22 +14662,19 @@
       <c r="D540" t="s">
         <v>1545</v>
       </c>
-      <c r="E540" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B541" t="s">
-        <v>202</v>
+        <v>1546</v>
       </c>
       <c r="C541" t="s">
-        <v>203</v>
+        <v>1547</v>
       </c>
       <c r="D541" t="s">
-        <v>204</v>
+        <v>1548</v>
       </c>
       <c r="E541" t="s">
         <v>134</v>
@@ -14685,21 +14682,24 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B542" t="s">
-        <v>1546</v>
+        <v>202</v>
       </c>
       <c r="C542" t="s">
-        <v>1547</v>
+        <v>203</v>
       </c>
       <c r="D542" t="s">
-        <v>1548</v>
+        <v>204</v>
+      </c>
+      <c r="E542" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B543" t="s">
         <v>1549</v>
@@ -14713,69 +14713,69 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B544" t="s">
-        <v>214</v>
+        <v>1552</v>
       </c>
       <c r="C544" t="s">
-        <v>215</v>
+        <v>1553</v>
       </c>
       <c r="D544" t="s">
-        <v>216</v>
-      </c>
-      <c r="E544" t="s">
-        <v>134</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B545" t="s">
-        <v>1552</v>
+        <v>214</v>
       </c>
       <c r="C545" t="s">
-        <v>1553</v>
+        <v>215</v>
       </c>
       <c r="D545" t="s">
-        <v>1554</v>
+        <v>216</v>
+      </c>
+      <c r="E545" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B546" t="s">
-        <v>220</v>
+        <v>1555</v>
       </c>
       <c r="C546" t="s">
-        <v>221</v>
+        <v>1556</v>
       </c>
       <c r="D546" t="s">
-        <v>222</v>
-      </c>
-      <c r="E546" t="s">
-        <v>134</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B547" t="s">
-        <v>1555</v>
+        <v>220</v>
       </c>
       <c r="C547" t="s">
-        <v>1556</v>
+        <v>221</v>
       </c>
       <c r="D547" t="s">
-        <v>1557</v>
+        <v>222</v>
+      </c>
+      <c r="E547" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B548" t="s">
         <v>1558</v>
@@ -14789,7 +14789,7 @@
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B549" t="s">
         <v>1561</v>
@@ -14797,13 +14797,13 @@
       <c r="C549" t="s">
         <v>1562</v>
       </c>
-      <c r="D549" s="1" t="s">
+      <c r="D549" t="s">
         <v>1563</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B550" t="s">
         <v>1564</v>
@@ -14811,13 +14811,13 @@
       <c r="C550" t="s">
         <v>1565</v>
       </c>
-      <c r="D550" t="s">
+      <c r="D550" s="1" t="s">
         <v>1566</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B551" t="s">
         <v>1567</v>
@@ -14831,7 +14831,7 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B552" t="s">
         <v>1570</v>
@@ -14839,13 +14839,13 @@
       <c r="C552" t="s">
         <v>1571</v>
       </c>
-      <c r="D552" s="1" t="s">
+      <c r="D552" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B553" t="s">
         <v>1573</v>
@@ -14853,16 +14853,13 @@
       <c r="C553" t="s">
         <v>1574</v>
       </c>
-      <c r="D553" t="s">
+      <c r="D553" s="1" t="s">
         <v>1575</v>
-      </c>
-      <c r="E553" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B554" t="s">
         <v>1576</v>
@@ -14879,7 +14876,7 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B555" t="s">
         <v>1579</v>
@@ -14890,10 +14887,13 @@
       <c r="D555" t="s">
         <v>1581</v>
       </c>
+      <c r="E555" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B556" t="s">
         <v>1582</v>
@@ -14904,13 +14904,10 @@
       <c r="D556" t="s">
         <v>1584</v>
       </c>
-      <c r="E556" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B557" t="s">
         <v>1585</v>
@@ -14921,10 +14918,13 @@
       <c r="D557" t="s">
         <v>1587</v>
       </c>
+      <c r="E557" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B558" t="s">
         <v>1588</v>
@@ -14938,7 +14938,7 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B559" t="s">
         <v>1591</v>
@@ -14949,13 +14949,10 @@
       <c r="D559" t="s">
         <v>1593</v>
       </c>
-      <c r="E559" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B560" t="s">
         <v>1594</v>
@@ -14972,7 +14969,7 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B561" t="s">
         <v>1597</v>
@@ -14983,10 +14980,13 @@
       <c r="D561" t="s">
         <v>1599</v>
       </c>
+      <c r="E561" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B562" t="s">
         <v>1600</v>
@@ -14997,13 +14997,10 @@
       <c r="D562" t="s">
         <v>1602</v>
       </c>
-      <c r="E562" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B563" t="s">
         <v>1603</v>
@@ -15020,16 +15017,16 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B564" t="s">
-        <v>226</v>
+        <v>1606</v>
       </c>
       <c r="C564" t="s">
-        <v>227</v>
+        <v>1607</v>
       </c>
       <c r="D564" t="s">
-        <v>228</v>
+        <v>1608</v>
       </c>
       <c r="E564" t="s">
         <v>134</v>
@@ -15037,16 +15034,16 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B565" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C565" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D565" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E565" t="s">
         <v>134</v>
@@ -15054,16 +15051,16 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B566" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C566" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D566" t="s">
-        <v>1606</v>
+        <v>237</v>
       </c>
       <c r="E566" t="s">
         <v>134</v>
@@ -15071,13 +15068,13 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B567" t="s">
-        <v>1607</v>
+        <v>238</v>
       </c>
       <c r="C567" t="s">
-        <v>1608</v>
+        <v>239</v>
       </c>
       <c r="D567" t="s">
         <v>1609</v>
@@ -15088,7 +15085,7 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B568" t="s">
         <v>1610</v>
@@ -15099,10 +15096,13 @@
       <c r="D568" t="s">
         <v>1612</v>
       </c>
+      <c r="E568" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B569" t="s">
         <v>1613</v>
@@ -15116,7 +15116,7 @@
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B570" t="s">
         <v>1616</v>
@@ -15130,7 +15130,7 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B571" t="s">
         <v>1619</v>
@@ -15144,7 +15144,7 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B572" t="s">
         <v>1622</v>
@@ -15158,7 +15158,7 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B573" t="s">
         <v>1625</v>
@@ -15172,7 +15172,7 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B574" t="s">
         <v>1628</v>
@@ -15186,7 +15186,7 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B575" t="s">
         <v>1631</v>
@@ -15200,7 +15200,7 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B576" t="s">
         <v>1634</v>
@@ -15214,7 +15214,7 @@
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B577" t="s">
         <v>1637</v>
@@ -15225,13 +15225,10 @@
       <c r="D577" t="s">
         <v>1639</v>
       </c>
-      <c r="E577" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B578" t="s">
         <v>1640</v>
@@ -15243,12 +15240,12 @@
         <v>1642</v>
       </c>
       <c r="E578" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B579" t="s">
         <v>1643</v>
@@ -15259,10 +15256,13 @@
       <c r="D579" t="s">
         <v>1645</v>
       </c>
+      <c r="E579" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B580" t="s">
         <v>1646</v>
@@ -15273,13 +15273,10 @@
       <c r="D580" t="s">
         <v>1648</v>
       </c>
-      <c r="E580" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B581" t="s">
         <v>1649</v>
@@ -15290,10 +15287,13 @@
       <c r="D581" t="s">
         <v>1651</v>
       </c>
+      <c r="E581" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B582" t="s">
         <v>1652</v>
@@ -15307,7 +15307,7 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B583" t="s">
         <v>1655</v>
@@ -15321,7 +15321,7 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B584" t="s">
         <v>1658</v>
@@ -15332,22 +15332,19 @@
       <c r="D584" t="s">
         <v>1660</v>
       </c>
-      <c r="E584" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B585" t="s">
-        <v>841</v>
+        <v>1661</v>
       </c>
       <c r="C585" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="D585" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="E585" t="s">
         <v>134</v>
@@ -15355,10 +15352,10 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B586" t="s">
-        <v>1663</v>
+        <v>844</v>
       </c>
       <c r="C586" t="s">
         <v>1664</v>
@@ -15372,7 +15369,7 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B587" t="s">
         <v>1666</v>
@@ -15383,10 +15380,13 @@
       <c r="D587" t="s">
         <v>1668</v>
       </c>
+      <c r="E587" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B588" t="s">
         <v>1669</v>
@@ -15400,7 +15400,7 @@
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B589" t="s">
         <v>1672</v>
@@ -15414,7 +15414,7 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B590" t="s">
         <v>1675</v>
@@ -15428,7 +15428,7 @@
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B591" t="s">
         <v>1678</v>
@@ -15442,7 +15442,7 @@
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B592" t="s">
         <v>1681</v>
@@ -15456,7 +15456,7 @@
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B593" t="s">
         <v>1684</v>
@@ -15470,7 +15470,7 @@
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B594" t="s">
         <v>1687</v>
@@ -15484,7 +15484,7 @@
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B595" t="s">
         <v>1690</v>
@@ -15498,7 +15498,7 @@
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B596" t="s">
         <v>1693</v>
@@ -15512,7 +15512,7 @@
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B597" t="s">
         <v>1696</v>
@@ -15526,7 +15526,7 @@
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B598" t="s">
         <v>1699</v>
@@ -15540,7 +15540,7 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B599" t="s">
         <v>1702</v>
@@ -15551,13 +15551,10 @@
       <c r="D599" t="s">
         <v>1704</v>
       </c>
-      <c r="E599" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B600" t="s">
         <v>1705</v>
@@ -15574,7 +15571,7 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B601" t="s">
         <v>1708</v>
@@ -15585,30 +15582,33 @@
       <c r="D601" t="s">
         <v>1710</v>
       </c>
+      <c r="E601" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B602" t="s">
         <v>1711</v>
       </c>
       <c r="C602" t="s">
-        <v>20</v>
+        <v>1712</v>
       </c>
       <c r="D602" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B603" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C603" t="s">
-        <v>1714</v>
+        <v>20</v>
       </c>
       <c r="D603" t="s">
         <v>1715</v>
@@ -15616,7 +15616,7 @@
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B604" t="s">
         <v>1716</v>
@@ -15627,13 +15627,10 @@
       <c r="D604" t="s">
         <v>1718</v>
       </c>
-      <c r="E604" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B605" t="s">
         <v>1719</v>
@@ -15645,12 +15642,12 @@
         <v>1721</v>
       </c>
       <c r="E605" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B606" t="s">
         <v>1722</v>
@@ -15662,12 +15659,12 @@
         <v>1724</v>
       </c>
       <c r="E606" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B607" t="s">
         <v>1725</v>
@@ -15684,7 +15681,7 @@
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B608" t="s">
         <v>1728</v>
@@ -15695,10 +15692,13 @@
       <c r="D608" t="s">
         <v>1730</v>
       </c>
+      <c r="E608" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B609" t="s">
         <v>1731</v>
@@ -15712,7 +15712,7 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B610" t="s">
         <v>1734</v>
@@ -15726,7 +15726,7 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B611" t="s">
         <v>1737</v>
@@ -15740,7 +15740,7 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B612" t="s">
         <v>1740</v>
@@ -15754,49 +15754,49 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B613" t="s">
-        <v>293</v>
+        <v>1743</v>
       </c>
       <c r="C613" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="D613" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>1745</v>
+        <v>853</v>
       </c>
       <c r="B614" t="s">
-        <v>36</v>
+        <v>293</v>
       </c>
       <c r="C614" t="s">
-        <v>37</v>
-      </c>
-      <c r="D614" s="1" t="s">
         <v>1746</v>
+      </c>
+      <c r="D614" t="s">
+        <v>1747</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B615" t="s">
-        <v>1747</v>
+        <v>36</v>
       </c>
       <c r="C615" t="s">
-        <v>1748</v>
-      </c>
-      <c r="D615" t="s">
+        <v>37</v>
+      </c>
+      <c r="D615" s="1" t="s">
         <v>1749</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B616" t="s">
         <v>1750</v>
@@ -15810,7 +15810,7 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B617" t="s">
         <v>1753</v>
@@ -15824,52 +15824,52 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B618" t="s">
-        <v>42</v>
+        <v>1756</v>
       </c>
       <c r="C618" t="s">
-        <v>43</v>
+        <v>1757</v>
       </c>
       <c r="D618" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B619" t="s">
-        <v>1757</v>
+        <v>42</v>
       </c>
       <c r="C619" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D619" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D619" t="s">
         <v>1759</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B620" t="s">
-        <v>549</v>
+        <v>1760</v>
       </c>
       <c r="C620" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D620" t="s">
         <v>1761</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>1762</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B621" t="s">
-        <v>1762</v>
+        <v>552</v>
       </c>
       <c r="C621" t="s">
         <v>1763</v>
@@ -15880,7 +15880,7 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B622" t="s">
         <v>1765</v>
@@ -15894,7 +15894,7 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B623" t="s">
         <v>1768</v>
@@ -15908,7 +15908,7 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B624" t="s">
         <v>1771</v>
@@ -15922,7 +15922,7 @@
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B625" t="s">
         <v>1774</v>
@@ -15936,7 +15936,7 @@
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B626" t="s">
         <v>1777</v>
@@ -15950,7 +15950,7 @@
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B627" t="s">
         <v>1780</v>
@@ -15964,7 +15964,7 @@
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B628" t="s">
         <v>1783</v>
@@ -15978,7 +15978,7 @@
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B629" t="s">
         <v>1786</v>
@@ -15992,7 +15992,7 @@
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B630" t="s">
         <v>1789</v>
@@ -16006,24 +16006,24 @@
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B631" t="s">
-        <v>773</v>
+        <v>1792</v>
       </c>
       <c r="C631" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="D631" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B632" t="s">
-        <v>1794</v>
+        <v>776</v>
       </c>
       <c r="C632" t="s">
         <v>1795</v>
@@ -16034,27 +16034,27 @@
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B633" t="s">
-        <v>48</v>
+        <v>1797</v>
       </c>
       <c r="C633" t="s">
-        <v>49</v>
+        <v>1798</v>
       </c>
       <c r="D633" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B634" t="s">
-        <v>1798</v>
+        <v>48</v>
       </c>
       <c r="C634" t="s">
-        <v>1799</v>
+        <v>49</v>
       </c>
       <c r="D634" t="s">
         <v>1800</v>
@@ -16062,7 +16062,7 @@
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B635" t="s">
         <v>1801</v>
@@ -16076,7 +16076,7 @@
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B636" t="s">
         <v>1804</v>
@@ -16090,7 +16090,7 @@
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B637" t="s">
         <v>1807</v>
@@ -16104,27 +16104,27 @@
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B638" t="s">
-        <v>51</v>
+        <v>1810</v>
       </c>
       <c r="C638" t="s">
-        <v>52</v>
+        <v>1811</v>
       </c>
       <c r="D638" t="s">
-        <v>1810</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B639" t="s">
-        <v>1811</v>
+        <v>51</v>
       </c>
       <c r="C639" t="s">
-        <v>1812</v>
+        <v>52</v>
       </c>
       <c r="D639" t="s">
         <v>1813</v>
@@ -16132,7 +16132,7 @@
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B640" t="s">
         <v>1814</v>
@@ -16146,52 +16146,52 @@
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B641" t="s">
-        <v>54</v>
+        <v>1817</v>
       </c>
       <c r="C641" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="D641" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B642" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C642" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="D642" t="s">
-        <v>59</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B643" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C643" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="D643" t="s">
-        <v>1821</v>
+        <v>59</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B644" t="s">
-        <v>1822</v>
+        <v>60</v>
       </c>
       <c r="C644" t="s">
         <v>1823</v>
@@ -16202,27 +16202,27 @@
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B645" t="s">
-        <v>63</v>
+        <v>1825</v>
       </c>
       <c r="C645" t="s">
-        <v>64</v>
+        <v>1826</v>
       </c>
       <c r="D645" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B646" t="s">
-        <v>1826</v>
+        <v>63</v>
       </c>
       <c r="C646" t="s">
-        <v>1827</v>
+        <v>64</v>
       </c>
       <c r="D646" t="s">
         <v>1828</v>
@@ -16230,24 +16230,24 @@
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B647" t="s">
-        <v>66</v>
+        <v>1829</v>
       </c>
       <c r="C647" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="D647" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B648" t="s">
-        <v>1831</v>
+        <v>66</v>
       </c>
       <c r="C648" t="s">
         <v>1832</v>
@@ -16258,7 +16258,7 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B649" t="s">
         <v>1834</v>
@@ -16272,7 +16272,7 @@
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B650" t="s">
         <v>1837</v>
@@ -16286,27 +16286,27 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B651" t="s">
-        <v>72</v>
+        <v>1840</v>
       </c>
       <c r="C651" t="s">
-        <v>73</v>
+        <v>1841</v>
       </c>
       <c r="D651" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B652" t="s">
-        <v>1841</v>
+        <v>72</v>
       </c>
       <c r="C652" t="s">
-        <v>1842</v>
+        <v>73</v>
       </c>
       <c r="D652" t="s">
         <v>1843</v>
@@ -16314,7 +16314,7 @@
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B653" t="s">
         <v>1844</v>
@@ -16328,24 +16328,24 @@
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B654" t="s">
-        <v>75</v>
+        <v>1847</v>
       </c>
       <c r="C654" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D654" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B655" t="s">
-        <v>1849</v>
+        <v>75</v>
       </c>
       <c r="C655" t="s">
         <v>1850</v>
@@ -16356,7 +16356,7 @@
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B656" t="s">
         <v>1852</v>
@@ -16364,13 +16364,13 @@
       <c r="C656" t="s">
         <v>1853</v>
       </c>
-      <c r="D656" s="1" t="s">
+      <c r="D656" t="s">
         <v>1854</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B657" t="s">
         <v>1855</v>
@@ -16378,13 +16378,13 @@
       <c r="C657" t="s">
         <v>1856</v>
       </c>
-      <c r="D657" t="s">
+      <c r="D657" s="1" t="s">
         <v>1857</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B658" t="s">
         <v>1858</v>
@@ -16398,7 +16398,7 @@
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B659" t="s">
         <v>1861</v>
@@ -16412,7 +16412,7 @@
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B660" t="s">
         <v>1864</v>
@@ -16426,63 +16426,63 @@
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B661" t="s">
-        <v>78</v>
+        <v>1867</v>
       </c>
       <c r="C661" t="s">
-        <v>556</v>
+        <v>1868</v>
       </c>
       <c r="D661" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B662" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C662" t="s">
-        <v>82</v>
-      </c>
-      <c r="D662" s="1" t="s">
-        <v>1868</v>
+        <v>559</v>
+      </c>
+      <c r="D662" t="s">
+        <v>1870</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B663" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C663" t="s">
-        <v>85</v>
-      </c>
-      <c r="D663" t="s">
-        <v>86</v>
+        <v>82</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>1871</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B664" t="s">
-        <v>1869</v>
+        <v>84</v>
       </c>
       <c r="C664" t="s">
-        <v>1870</v>
+        <v>85</v>
       </c>
       <c r="D664" t="s">
-        <v>1871</v>
+        <v>86</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B665" t="s">
         <v>1872</v>
@@ -16496,7 +16496,7 @@
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B666" t="s">
         <v>1875</v>
@@ -16510,7 +16510,7 @@
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B667" t="s">
         <v>1878</v>
@@ -16524,7 +16524,7 @@
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B668" t="s">
         <v>1881</v>
@@ -16532,13 +16532,13 @@
       <c r="C668" t="s">
         <v>1882</v>
       </c>
-      <c r="D668" s="1" t="s">
+      <c r="D668" t="s">
         <v>1883</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B669" t="s">
         <v>1884</v>
@@ -16546,13 +16546,13 @@
       <c r="C669" t="s">
         <v>1885</v>
       </c>
-      <c r="D669" t="s">
+      <c r="D669" s="1" t="s">
         <v>1886</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B670" t="s">
         <v>1887</v>
@@ -16566,7 +16566,7 @@
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B671" t="s">
         <v>1890</v>
@@ -16580,38 +16580,38 @@
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B672" t="s">
-        <v>90</v>
+        <v>1893</v>
       </c>
       <c r="C672" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="D672" t="s">
-        <v>92</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B673" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C673" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="D673" t="s">
-        <v>1895</v>
+        <v>92</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B674" t="s">
-        <v>1896</v>
+        <v>93</v>
       </c>
       <c r="C674" t="s">
         <v>1897</v>
@@ -16622,35 +16622,35 @@
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B675" t="s">
-        <v>96</v>
+        <v>1899</v>
       </c>
       <c r="C675" t="s">
-        <v>97</v>
+        <v>1900</v>
       </c>
       <c r="D675" t="s">
-        <v>98</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B676" t="s">
-        <v>1899</v>
+        <v>96</v>
       </c>
       <c r="C676" t="s">
-        <v>1900</v>
+        <v>97</v>
       </c>
       <c r="D676" t="s">
-        <v>1901</v>
+        <v>98</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B677" t="s">
         <v>1902</v>
@@ -16664,7 +16664,7 @@
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B678" t="s">
         <v>1905</v>
@@ -16678,7 +16678,7 @@
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B679" t="s">
         <v>1908</v>
@@ -16692,7 +16692,7 @@
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B680" t="s">
         <v>1911</v>
@@ -16706,7 +16706,7 @@
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B681" t="s">
         <v>1914</v>
@@ -16720,7 +16720,7 @@
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B682" t="s">
         <v>1917</v>
@@ -16734,86 +16734,100 @@
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B683" t="s">
-        <v>127</v>
+        <v>1920</v>
       </c>
       <c r="C683" t="s">
-        <v>128</v>
+        <v>1921</v>
       </c>
       <c r="D683" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>1921</v>
+        <v>1748</v>
       </c>
       <c r="B684" t="s">
-        <v>341</v>
+        <v>127</v>
       </c>
       <c r="C684" t="s">
-        <v>342</v>
+        <v>128</v>
       </c>
       <c r="D684" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="B685" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C685" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D685" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="B686" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C686" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D686" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="B687" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C687" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D687" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="B688" t="s">
+        <v>350</v>
+      </c>
+      <c r="C688" t="s">
+        <v>351</v>
+      </c>
+      <c r="D688" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B689" t="s">
         <v>353</v>
       </c>
-      <c r="C688" t="s">
+      <c r="C689" t="s">
         <v>354</v>
       </c>
-      <c r="D688" t="s">
-        <v>1926</v>
+      <c r="D689" t="s">
+        <v>1929</v>
       </c>
     </row>
   </sheetData>
